--- a/task/+eventCreator/randomisation.xlsx
+++ b/task/+eventCreator/randomisation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwellste/projects/SEPAB/tasks/social_affective_prediction_task/task/+eventCreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E3D568-56AD-FF43-85EF-E9CD760B5A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1EEDE6-9149-234A-A99E-F00A487A143F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32640" yWindow="500" windowWidth="34560" windowHeight="18980" activeTab="1" xr2:uid="{960645DE-D3B2-7545-8897-4998A9B98D00}"/>
+    <workbookView xWindow="32640" yWindow="500" windowWidth="34560" windowHeight="18980" xr2:uid="{960645DE-D3B2-7545-8897-4998A9B98D00}"/>
   </bookViews>
   <sheets>
     <sheet name="stimuli" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="17">
   <si>
     <t>f1</t>
   </si>
@@ -269,8 +269,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2967624C-A5FB-5A44-9608-53655EE5D9E1}" name="Table13" displayName="Table13" ref="A1:F42" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F42" xr:uid="{2967624C-A5FB-5A44-9608-53655EE5D9E1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2967624C-A5FB-5A44-9608-53655EE5D9E1}" name="Table13" displayName="Table13" ref="A1:F43" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F43" xr:uid="{2967624C-A5FB-5A44-9608-53655EE5D9E1}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{9076E2B0-A52A-4F4C-A40D-59F7CFBAE5E1}" name="PID" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{78B7B15E-BB00-8F4A-A432-63588FEDAAE2}" name="practice_a1" dataDxfId="4"/>
@@ -593,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A886A73D-7D5B-1440-9AEF-D5255F093359}">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -620,7 +620,6 @@
       <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -628,7 +627,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1001</v>
+        <v>1999</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -645,804 +644,828 @@
       <c r="F2" t="s">
         <v>6</v>
       </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B20" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B23" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B26" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B32" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>1032</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
+        <v>1031</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>1033</v>
-      </c>
-      <c r="B34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F34" t="s">
-        <v>6</v>
+        <v>1032</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F36" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F38" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B39" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F39" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B40" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E40" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E41" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F41" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
+        <v>1040</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>1041</v>
       </c>
-      <c r="B42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1459,7 +1482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C183AB-8CD0-044E-A35E-D1387903F1DB}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/task/+eventCreator/randomisation.xlsx
+++ b/task/+eventCreator/randomisation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwellste/projects/SEPAB/tasks/social_affective_prediction_task/task/+eventCreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1EEDE6-9149-234A-A99E-F00A487A143F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B81C2EC-0229-C247-8406-F4C3DC87D1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32640" yWindow="500" windowWidth="34560" windowHeight="18980" xr2:uid="{960645DE-D3B2-7545-8897-4998A9B98D00}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{960645DE-D3B2-7545-8897-4998A9B98D00}"/>
   </bookViews>
   <sheets>
     <sheet name="stimuli" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="19">
   <si>
     <t>f1</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>AAA</t>
+  </si>
+  <si>
+    <t>patient</t>
+  </si>
+  <si>
+    <t>healthy</t>
   </si>
 </sst>
 </file>
@@ -173,18 +179,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -269,15 +292,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2967624C-A5FB-5A44-9608-53655EE5D9E1}" name="Table13" displayName="Table13" ref="A1:F43" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F43" xr:uid="{2967624C-A5FB-5A44-9608-53655EE5D9E1}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{9076E2B0-A52A-4F4C-A40D-59F7CFBAE5E1}" name="PID" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{78B7B15E-BB00-8F4A-A432-63588FEDAAE2}" name="practice_a1" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{22060187-0CE8-E94A-9F48-5588CA3B8702}" name="practice_a2" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{614B054E-B73B-3549-B094-878AB5B37ED8}" name="experiment_a1" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{C287A44E-7E0E-8949-90B7-BB37CB7BDF46}" name="experiment_a2" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{66E5212A-86A8-D040-BD38-95AD739411D3}" name="experiment_a3" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2967624C-A5FB-5A44-9608-53655EE5D9E1}" name="Table13" displayName="Table13" ref="A1:H44" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H44" xr:uid="{2967624C-A5FB-5A44-9608-53655EE5D9E1}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{9076E2B0-A52A-4F4C-A40D-59F7CFBAE5E1}" name="PID" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{78B7B15E-BB00-8F4A-A432-63588FEDAAE2}" name="practice_a1" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{22060187-0CE8-E94A-9F48-5588CA3B8702}" name="practice_a2" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{614B054E-B73B-3549-B094-878AB5B37ED8}" name="experiment_a1" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{C287A44E-7E0E-8949-90B7-BB37CB7BDF46}" name="experiment_a2" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{66E5212A-86A8-D040-BD38-95AD739411D3}" name="experiment_a3" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{5FF67A3B-AB66-774C-A800-BBD982542FEC}" name="patient" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{6A2EC733-4F7C-6042-A7C2-7CF5579540C7}" name="healthy" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -593,15 +618,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A886A73D-7D5B-1440-9AEF-D5255F093359}">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -620,12 +645,18 @@
       <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="G1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1999</v>
       </c>
@@ -644,829 +675,1111 @@
       <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
+        <v>999</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>1001</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>1002</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>1003</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>1004</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>1005</v>
       </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>1006</v>
       </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>1007</v>
       </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>1008</v>
       </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>1009</v>
       </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>1010</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>1011</v>
       </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>1012</v>
       </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>1013</v>
       </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>1014</v>
       </c>
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>1015</v>
       </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>1016</v>
       </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>1017</v>
       </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>1018</v>
       </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>1019</v>
       </c>
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>1020</v>
       </c>
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>1021</v>
       </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>1022</v>
       </c>
-      <c r="B24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>1023</v>
       </c>
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>1024</v>
       </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" t="s">
-        <v>0</v>
-      </c>
-      <c r="F26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>1025</v>
       </c>
-      <c r="B27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>1026</v>
       </c>
-      <c r="B28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0</v>
+      </c>
+      <c r="H29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>1027</v>
       </c>
-      <c r="B29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0</v>
+      </c>
+      <c r="H30" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>1028</v>
       </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" t="s">
-        <v>0</v>
-      </c>
-      <c r="F30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0</v>
+      </c>
+      <c r="H31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>1029</v>
       </c>
-      <c r="B31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" t="s">
-        <v>2</v>
-      </c>
-      <c r="F31" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0</v>
+      </c>
+      <c r="H32" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>1030</v>
       </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1</v>
-      </c>
-      <c r="F32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0</v>
+      </c>
+      <c r="H33" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>1031</v>
       </c>
-      <c r="B33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0</v>
+      </c>
+      <c r="H34" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>1032</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="B35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0</v>
+      </c>
+      <c r="H35" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>1033</v>
       </c>
-      <c r="B35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0</v>
+      </c>
+      <c r="H36" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>1034</v>
       </c>
-      <c r="B36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" t="s">
-        <v>4</v>
-      </c>
-      <c r="F36" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0</v>
+      </c>
+      <c r="H37" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>1035</v>
       </c>
-      <c r="B37" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0</v>
+      </c>
+      <c r="H38" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>1036</v>
       </c>
-      <c r="B38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" t="s">
-        <v>6</v>
-      </c>
-      <c r="F38" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0</v>
+      </c>
+      <c r="H39" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>1037</v>
       </c>
-      <c r="B39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E39" t="s">
-        <v>2</v>
-      </c>
-      <c r="F39" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0</v>
+      </c>
+      <c r="H40" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>1038</v>
       </c>
-      <c r="B40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" t="s">
-        <v>0</v>
-      </c>
-      <c r="F40" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0</v>
+      </c>
+      <c r="H41" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>1039</v>
       </c>
-      <c r="B41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" t="s">
+        <v>0</v>
+      </c>
+      <c r="G42" s="6">
+        <v>0</v>
+      </c>
+      <c r="H42" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>1040</v>
       </c>
-      <c r="B42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" t="s">
-        <v>1</v>
-      </c>
-      <c r="F42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>2</v>
+      </c>
+      <c r="G43" s="6">
+        <v>0</v>
+      </c>
+      <c r="H43" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>1041</v>
       </c>
-      <c r="B43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" t="s">
-        <v>0</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" t="s">
-        <v>5</v>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0</v>
+      </c>
+      <c r="H44" s="6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/task/+eventCreator/randomisation.xlsx
+++ b/task/+eventCreator/randomisation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwellste/projects/SEPAB/tasks/social_affective_prediction_task/task/+eventCreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B81C2EC-0229-C247-8406-F4C3DC87D1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD359CF-3B0D-5044-8F02-6AE512BD2E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{960645DE-D3B2-7545-8897-4998A9B98D00}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" activeTab="1" xr2:uid="{960645DE-D3B2-7545-8897-4998A9B98D00}"/>
   </bookViews>
   <sheets>
     <sheet name="stimuli" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="19">
   <si>
     <t>f1</t>
   </si>
@@ -179,14 +179,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -292,8 +291,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2967624C-A5FB-5A44-9608-53655EE5D9E1}" name="Table13" displayName="Table13" ref="A1:H44" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:H44" xr:uid="{2967624C-A5FB-5A44-9608-53655EE5D9E1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2967624C-A5FB-5A44-9608-53655EE5D9E1}" name="Table13" displayName="Table13" ref="A1:H86" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H86" xr:uid="{2967624C-A5FB-5A44-9608-53655EE5D9E1}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{9076E2B0-A52A-4F4C-A40D-59F7CFBAE5E1}" name="PID" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{78B7B15E-BB00-8F4A-A432-63588FEDAAE2}" name="practice_a1" dataDxfId="6"/>
@@ -309,8 +308,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E3D41B88-38BB-1A4A-9319-BFAD38CD47A1}" name="Table2" displayName="Table2" ref="A1:D42" totalsRowShown="0">
-  <autoFilter ref="A1:D42" xr:uid="{E3D41B88-38BB-1A4A-9319-BFAD38CD47A1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E3D41B88-38BB-1A4A-9319-BFAD38CD47A1}" name="Table2" displayName="Table2" ref="A1:D84" totalsRowShown="0">
+  <autoFilter ref="A1:D84" xr:uid="{E3D41B88-38BB-1A4A-9319-BFAD38CD47A1}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{30AED3BE-AC46-E445-8C45-63FAA3B39E64}" name="PID"/>
     <tableColumn id="2" xr3:uid="{BE35BC73-52D9-B947-8470-327116698A18}" name="SAP"/>
@@ -618,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A886A73D-7D5B-1440-9AEF-D5255F093359}">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -645,10 +644,10 @@
       <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" t="s">
         <v>18</v>
       </c>
       <c r="K1" s="5"/>
@@ -675,10 +674,10 @@
       <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>0</v>
       </c>
       <c r="K2" s="5"/>
@@ -705,10 +704,10 @@
       <c r="F3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>0</v>
       </c>
       <c r="K3" s="5"/>
@@ -735,10 +734,10 @@
       <c r="F4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
     </row>
@@ -761,10 +760,10 @@
       <c r="F5" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>0</v>
       </c>
     </row>
@@ -787,10 +786,10 @@
       <c r="F6" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>0</v>
       </c>
     </row>
@@ -813,10 +812,10 @@
       <c r="F7" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>0</v>
       </c>
     </row>
@@ -839,10 +838,10 @@
       <c r="F8" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>0</v>
       </c>
     </row>
@@ -865,10 +864,10 @@
       <c r="F9" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>0</v>
       </c>
     </row>
@@ -891,10 +890,10 @@
       <c r="F10" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>0</v>
       </c>
     </row>
@@ -917,10 +916,10 @@
       <c r="F11" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>0</v>
       </c>
     </row>
@@ -943,10 +942,10 @@
       <c r="F12" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6">
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>0</v>
       </c>
     </row>
@@ -969,10 +968,10 @@
       <c r="F13" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="6">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>0</v>
       </c>
     </row>
@@ -995,10 +994,10 @@
       <c r="F14" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="6">
-        <v>0</v>
-      </c>
-      <c r="H14" s="6">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>0</v>
       </c>
     </row>
@@ -1021,10 +1020,10 @@
       <c r="F15" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="6">
-        <v>0</v>
-      </c>
-      <c r="H15" s="6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>0</v>
       </c>
     </row>
@@ -1047,10 +1046,10 @@
       <c r="F16" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="6">
-        <v>0</v>
-      </c>
-      <c r="H16" s="6">
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>0</v>
       </c>
     </row>
@@ -1073,10 +1072,10 @@
       <c r="F17" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="6">
-        <v>0</v>
-      </c>
-      <c r="H17" s="6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>0</v>
       </c>
     </row>
@@ -1099,10 +1098,10 @@
       <c r="F18" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="6">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>0</v>
       </c>
     </row>
@@ -1125,10 +1124,10 @@
       <c r="F19" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="6">
-        <v>0</v>
-      </c>
-      <c r="H19" s="6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>0</v>
       </c>
     </row>
@@ -1151,10 +1150,10 @@
       <c r="F20" t="s">
         <v>0</v>
       </c>
-      <c r="G20" s="6">
-        <v>0</v>
-      </c>
-      <c r="H20" s="6">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>0</v>
       </c>
     </row>
@@ -1177,10 +1176,10 @@
       <c r="F21" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="6">
-        <v>0</v>
-      </c>
-      <c r="H21" s="6">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>0</v>
       </c>
     </row>
@@ -1203,10 +1202,10 @@
       <c r="F22" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="6">
-        <v>0</v>
-      </c>
-      <c r="H22" s="6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>0</v>
       </c>
     </row>
@@ -1229,10 +1228,10 @@
       <c r="F23" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="6">
-        <v>0</v>
-      </c>
-      <c r="H23" s="6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>0</v>
       </c>
     </row>
@@ -1255,10 +1254,10 @@
       <c r="F24" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="6">
-        <v>0</v>
-      </c>
-      <c r="H24" s="6">
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>0</v>
       </c>
     </row>
@@ -1281,10 +1280,10 @@
       <c r="F25" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="6">
-        <v>0</v>
-      </c>
-      <c r="H25" s="6">
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>0</v>
       </c>
     </row>
@@ -1307,10 +1306,10 @@
       <c r="F26" t="s">
         <v>1</v>
       </c>
-      <c r="G26" s="6">
-        <v>0</v>
-      </c>
-      <c r="H26" s="6">
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <v>0</v>
       </c>
     </row>
@@ -1333,10 +1332,10 @@
       <c r="F27" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="6">
-        <v>0</v>
-      </c>
-      <c r="H27" s="6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <v>0</v>
       </c>
     </row>
@@ -1359,10 +1358,10 @@
       <c r="F28" t="s">
         <v>4</v>
       </c>
-      <c r="G28" s="6">
-        <v>0</v>
-      </c>
-      <c r="H28" s="6">
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <v>0</v>
       </c>
     </row>
@@ -1385,10 +1384,10 @@
       <c r="F29" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="6">
-        <v>0</v>
-      </c>
-      <c r="H29" s="6">
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>0</v>
       </c>
     </row>
@@ -1411,10 +1410,10 @@
       <c r="F30" t="s">
         <v>6</v>
       </c>
-      <c r="G30" s="6">
-        <v>0</v>
-      </c>
-      <c r="H30" s="6">
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>0</v>
       </c>
     </row>
@@ -1437,10 +1436,10 @@
       <c r="F31" t="s">
         <v>7</v>
       </c>
-      <c r="G31" s="6">
-        <v>0</v>
-      </c>
-      <c r="H31" s="6">
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>0</v>
       </c>
     </row>
@@ -1463,10 +1462,10 @@
       <c r="F32" t="s">
         <v>0</v>
       </c>
-      <c r="G32" s="6">
-        <v>0</v>
-      </c>
-      <c r="H32" s="6">
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
         <v>0</v>
       </c>
     </row>
@@ -1489,10 +1488,10 @@
       <c r="F33" t="s">
         <v>2</v>
       </c>
-      <c r="G33" s="6">
-        <v>0</v>
-      </c>
-      <c r="H33" s="6">
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
         <v>0</v>
       </c>
     </row>
@@ -1515,10 +1514,10 @@
       <c r="F34" t="s">
         <v>1</v>
       </c>
-      <c r="G34" s="6">
-        <v>0</v>
-      </c>
-      <c r="H34" s="6">
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
         <v>0</v>
       </c>
     </row>
@@ -1541,10 +1540,10 @@
       <c r="F35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G35" s="6">
-        <v>0</v>
-      </c>
-      <c r="H35" s="6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
         <v>0</v>
       </c>
     </row>
@@ -1567,10 +1566,10 @@
       <c r="F36" t="s">
         <v>6</v>
       </c>
-      <c r="G36" s="6">
-        <v>0</v>
-      </c>
-      <c r="H36" s="6">
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
         <v>0</v>
       </c>
     </row>
@@ -1593,10 +1592,10 @@
       <c r="F37" t="s">
         <v>7</v>
       </c>
-      <c r="G37" s="6">
-        <v>0</v>
-      </c>
-      <c r="H37" s="6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
         <v>0</v>
       </c>
     </row>
@@ -1619,10 +1618,10 @@
       <c r="F38" t="s">
         <v>4</v>
       </c>
-      <c r="G38" s="6">
-        <v>0</v>
-      </c>
-      <c r="H38" s="6">
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
         <v>0</v>
       </c>
     </row>
@@ -1645,10 +1644,10 @@
       <c r="F39" t="s">
         <v>5</v>
       </c>
-      <c r="G39" s="6">
-        <v>0</v>
-      </c>
-      <c r="H39" s="6">
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
         <v>0</v>
       </c>
     </row>
@@ -1671,10 +1670,10 @@
       <c r="F40" t="s">
         <v>1</v>
       </c>
-      <c r="G40" s="6">
-        <v>0</v>
-      </c>
-      <c r="H40" s="6">
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
         <v>0</v>
       </c>
     </row>
@@ -1697,10 +1696,10 @@
       <c r="F41" t="s">
         <v>3</v>
       </c>
-      <c r="G41" s="6">
-        <v>0</v>
-      </c>
-      <c r="H41" s="6">
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
         <v>0</v>
       </c>
     </row>
@@ -1723,10 +1722,10 @@
       <c r="F42" t="s">
         <v>0</v>
       </c>
-      <c r="G42" s="6">
-        <v>0</v>
-      </c>
-      <c r="H42" s="6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
         <v>0</v>
       </c>
     </row>
@@ -1749,10 +1748,10 @@
       <c r="F43" t="s">
         <v>2</v>
       </c>
-      <c r="G43" s="6">
-        <v>0</v>
-      </c>
-      <c r="H43" s="6">
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
         <v>0</v>
       </c>
     </row>
@@ -1775,10 +1774,1102 @@
       <c r="F44" t="s">
         <v>5</v>
       </c>
-      <c r="G44" s="6">
-        <v>0</v>
-      </c>
-      <c r="H44" s="6">
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>2999</v>
+      </c>
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>2001</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2002</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>2003</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>2004</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>2005</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>2</v>
+      </c>
+      <c r="F50" t="s">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>2006</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>2007</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" t="s">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>2008</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>2009</v>
+      </c>
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>2010</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>2011</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" t="s">
+        <v>2</v>
+      </c>
+      <c r="F56" t="s">
+        <v>4</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>2012</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" t="s">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>2013</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>2014</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" t="s">
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>2015</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" t="s">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>2016</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
+        <v>5</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>2017</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" t="s">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>2018</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63" t="s">
+        <v>3</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>2019</v>
+      </c>
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" t="s">
+        <v>2</v>
+      </c>
+      <c r="F64" t="s">
+        <v>6</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>2020</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" t="s">
+        <v>2</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>2021</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" t="s">
+        <v>4</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>2022</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1</v>
+      </c>
+      <c r="F67" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>2023</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>5</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>2024</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" t="s">
+        <v>0</v>
+      </c>
+      <c r="F69" t="s">
+        <v>5</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>2025</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" t="s">
+        <v>5</v>
+      </c>
+      <c r="F70" t="s">
+        <v>4</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>2026</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71" t="s">
+        <v>5</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>2027</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" t="s">
+        <v>6</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>2028</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73" t="s">
+        <v>0</v>
+      </c>
+      <c r="F73" t="s">
+        <v>7</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>2029</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>2030</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1</v>
+      </c>
+      <c r="F75" t="s">
+        <v>2</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>2031</v>
+      </c>
+      <c r="B76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" t="s">
+        <v>3</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>2032</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>2033</v>
+      </c>
+      <c r="B78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E78" t="s">
+        <v>5</v>
+      </c>
+      <c r="F78" t="s">
+        <v>6</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>2034</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>0</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E79" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79" t="s">
+        <v>7</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>2035</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" t="s">
+        <v>4</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>2036</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" t="s">
+        <v>6</v>
+      </c>
+      <c r="F81" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>2037</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E82" t="s">
+        <v>2</v>
+      </c>
+      <c r="F82" t="s">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>2038</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" t="s">
+        <v>0</v>
+      </c>
+      <c r="F83" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>2039</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" t="s">
+        <v>3</v>
+      </c>
+      <c r="F84" t="s">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>2040</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1</v>
+      </c>
+      <c r="F85" t="s">
+        <v>2</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>2041</v>
+      </c>
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
+        <v>0</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" t="s">
+        <v>4</v>
+      </c>
+      <c r="F86" t="s">
+        <v>5</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
         <v>0</v>
       </c>
     </row>
@@ -1793,10 +2884,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C183AB-8CD0-044E-A35E-D1387903F1DB}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1817,7 +2908,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1001</v>
+        <v>1999</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1831,13 +2922,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -1845,13 +2936,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1859,13 +2950,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -1873,13 +2964,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -1887,13 +2978,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -1901,13 +2992,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -1915,13 +3006,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -1929,13 +3020,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -1943,13 +3034,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -1957,13 +3048,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -1971,13 +3062,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -1985,13 +3076,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -1999,13 +3090,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -2013,13 +3104,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -2027,13 +3118,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -2041,13 +3132,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -2055,13 +3146,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -2069,13 +3160,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -2083,13 +3174,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -2097,13 +3188,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -2111,13 +3202,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -2125,13 +3216,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>3</v>
@@ -2139,13 +3230,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -2153,13 +3244,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -2167,13 +3258,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -2181,13 +3272,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -2195,13 +3286,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -2209,13 +3300,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -2223,13 +3314,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31">
         <v>3</v>
@@ -2237,13 +3328,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -2251,13 +3342,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33">
         <v>3</v>
@@ -2265,13 +3356,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -2279,13 +3370,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -2293,13 +3384,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>3</v>
@@ -2307,13 +3398,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -2321,13 +3412,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38">
         <v>3</v>
@@ -2335,13 +3426,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39">
         <v>3</v>
@@ -2349,13 +3440,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40">
         <v>3</v>
@@ -2363,13 +3454,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41">
         <v>3</v>
@@ -2377,15 +3468,603 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
+        <v>1040</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>1041</v>
       </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>2</v>
-      </c>
-      <c r="D42">
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>2001</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>2002</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>2003</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2004</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>2005</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>2006</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>2007</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>2008</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>2009</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>2010</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>2011</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>2012</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>2013</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>2014</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>2015</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>2016</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>2017</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>2018</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>2019</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>2020</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>2021</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>2022</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>2023</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>2024</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>2025</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>2026</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>2027</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>2028</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>2029</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>2030</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>2031</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>2032</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>2033</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>2034</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>2035</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>2036</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>2037</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>2038</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>2039</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>2040</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>2041</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84">
         <v>3</v>
       </c>
     </row>
